--- a/Review/Review_FoodLab_Unit_Test.xlsx
+++ b/Review/Review_FoodLab_Unit_Test.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/foodlabTesting/Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE438C4-5BBA-7A43-8EC9-DA520AC95BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC62AF4D-9B77-7549-96A2-84AB702DBC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1340" windowWidth="25420" windowHeight="17340" xr2:uid="{8F8C2D6A-ABA6-C547-BCA7-FFC1F9D117E5}"/>
+    <workbookView xWindow="820" yWindow="500" windowWidth="25420" windowHeight="15760" xr2:uid="{8F8C2D6A-ABA6-C547-BCA7-FFC1F9D117E5}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
+    <sheet name="Home" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -126,6 +127,95 @@
   </si>
   <si>
     <t>Show All Text in default view State</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Page Break is not Correct.</t>
+  </si>
+  <si>
+    <t>Text valign</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Header Color</t>
+  </si>
+  <si>
+    <t>Change Header Color</t>
+  </si>
+  <si>
+    <t>Change top for No,Function column text.</t>
+  </si>
+  <si>
+    <t>Add Maintanance function</t>
+  </si>
+  <si>
+    <t>Remove http://127.0.0.1:8000/ to 
+http://www.website.com/</t>
+  </si>
+  <si>
+    <t>Add About News Color function.which category will show what color.</t>
+  </si>
+  <si>
+    <t>Unit test flow must be 
+1.Initial Load
+2.Button Function
+3.Function
+4.Page Transfer</t>
+  </si>
+  <si>
+    <t>Unit test Flow is not correct.
+See All Review Sheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add manual data adding testing. </t>
+  </si>
+  <si>
+    <t>Add Login and no login Show State.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOP NOW button </t>
+  </si>
+  <si>
+    <t>not correct testing statement.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Add Welcome text function.</t>
+  </si>
+  <si>
+    <t>Add more detail for get contact function</t>
+  </si>
+  <si>
+    <t>Add Login function.</t>
+  </si>
+  <si>
+    <t>Add Login and no login Show State for footer.</t>
+  </si>
+  <si>
+    <t>Add Recomented Function for Login State.</t>
+  </si>
+  <si>
+    <t>Add Mail Click function</t>
+  </si>
+  <si>
+    <t>Add Dropdown list for profile.</t>
+  </si>
+  <si>
+    <t>Add Slide Function for slider</t>
+  </si>
+  <si>
+    <t>Add more detail for best seller function.
+Example: product name will show what database column,etc.,,</t>
+  </si>
+  <si>
+    <t>Add more detail for recommand function.
+Example: product name will show what database column,etc.,,</t>
   </si>
 </sst>
 </file>
@@ -156,7 +246,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +262,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -218,6 +314,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -551,7 +658,7 @@
     <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,7 +690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f>ROW()-2</f>
         <v>1</v>
@@ -607,7 +714,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A50" si="0">ROW()-2</f>
         <v>2</v>
@@ -631,7 +738,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -655,7 +762,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -679,7 +786,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -703,7 +810,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -727,7 +834,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -751,7 +858,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -775,7 +882,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -799,7 +906,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -823,7 +930,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -847,7 +954,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -871,7 +978,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -895,7 +1002,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -919,7 +1026,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -943,7 +1050,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -967,7 +1074,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -991,35 +1098,55 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+    <row r="20" spans="1:9" ht="44" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="B20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="11">
+        <v>44633</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+    <row r="21" spans="1:9" ht="110" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="11">
+        <v>44633</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1033,7 +1160,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1047,7 +1174,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1061,7 +1188,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1075,7 +1202,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1089,7 +1216,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1103,7 +1230,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1117,7 +1244,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1131,7 +1258,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1145,7 +1272,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1159,7 +1286,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1173,7 +1300,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1187,7 +1314,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1201,7 +1328,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1215,7 +1342,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1229,7 +1356,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1243,7 +1370,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1257,7 +1384,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1271,7 +1398,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1285,7 +1412,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1299,7 +1426,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1313,7 +1440,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1327,7 +1454,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1341,7 +1468,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1355,7 +1482,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1369,7 +1496,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1383,7 +1510,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1397,7 +1524,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1411,7 +1538,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1428,4 +1555,948 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CCED23-1646-274C-9AE6-0A5F09B2AFF6}">
+  <dimension ref="A2:J54"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A53" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="44" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="22" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="44" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+    <row r="54" spans="1:9" ht="21" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Review/Review_FoodLab_Unit_Test.xlsx
+++ b/Review/Review_FoodLab_Unit_Test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/foodlabTesting/Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC62AF4D-9B77-7549-96A2-84AB702DBC78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8360FA56-4DBC-1A41-BD66-99DDEE5F7D5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="25420" windowHeight="15760" xr2:uid="{8F8C2D6A-ABA6-C547-BCA7-FFC1F9D117E5}"/>
   </bookViews>
@@ -192,9 +192,6 @@
     <t>Add more detail for get contact function</t>
   </si>
   <si>
-    <t>Add Login function.</t>
-  </si>
-  <si>
     <t>Add Login and no login Show State for footer.</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   <si>
     <t>Add more detail for recommand function.
 Example: product name will show what database column,etc.,,</t>
+  </si>
+  <si>
+    <t>Add Logo function.</t>
   </si>
 </sst>
 </file>
@@ -1559,11 +1559,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CCED23-1646-274C-9AE6-0A5F09B2AFF6}">
-  <dimension ref="A2:J54"/>
+  <dimension ref="A2:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.83203125" style="1" customWidth="1"/>
@@ -1608,7 +1608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f>ROW()-2</f>
         <v>1</v>
@@ -1632,7 +1632,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A53" si="0">ROW()-2</f>
         <v>2</v>
@@ -1656,7 +1656,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1708,7 +1708,7 @@
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="7"/>
@@ -1717,7 +1717,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1765,7 +1765,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1789,7 +1789,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1813,14 +1813,14 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D12" s="6">
         <v>44633</v>
@@ -1835,14 +1835,14 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="6">
         <v>44633</v>
@@ -1866,7 +1866,7 @@
         <v>47</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="6">
         <v>44633</v>
@@ -1890,7 +1890,7 @@
         <v>47</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D15" s="6">
         <v>44633</v>
@@ -1905,7 +1905,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1929,7 +1929,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1953,7 +1953,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1977,7 +1977,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1986,7 +1986,7 @@
         <v>47</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="6">
         <v>44633</v>
@@ -2001,7 +2001,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2010,7 +2010,7 @@
         <v>47</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D20" s="6">
         <v>44633</v>
@@ -2025,14 +2025,14 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D21" s="6">
         <v>44633</v>
@@ -2047,7 +2047,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2061,7 +2061,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2075,7 +2075,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -2089,7 +2089,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -2103,7 +2103,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -2117,7 +2117,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -2131,7 +2131,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -2145,7 +2145,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -2159,7 +2159,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -2173,7 +2173,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -2187,7 +2187,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -2201,7 +2201,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -2215,7 +2215,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -2229,7 +2229,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -2243,7 +2243,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -2257,7 +2257,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -2271,7 +2271,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -2285,7 +2285,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -2299,7 +2299,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -2313,7 +2313,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -2327,7 +2327,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -2341,7 +2341,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -2355,7 +2355,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -2369,7 +2369,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -2383,7 +2383,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -2397,7 +2397,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -2411,7 +2411,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -2425,7 +2425,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -2439,7 +2439,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -2453,7 +2453,7 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -2467,7 +2467,7 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="5">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -2481,7 +2481,7 @@
       <c r="H52" s="5"/>
       <c r="I52" s="5"/>
     </row>
-    <row r="53" spans="1:9" ht="21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -2495,7 +2495,6 @@
       <c r="H53" s="5"/>
       <c r="I53" s="5"/>
     </row>
-    <row r="54" spans="1:9" ht="21" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Review/Review_FoodLab_Unit_Test.xlsx
+++ b/Review/Review_FoodLab_Unit_Test.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/foodlabTesting/Review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ExBrain\commit\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE438C4-5BBA-7A43-8EC9-DA520AC95BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1340" windowWidth="25420" windowHeight="17340" xr2:uid="{8F8C2D6A-ABA6-C547-BCA7-FFC1F9D117E5}"/>
+    <workbookView xWindow="10320" yWindow="1335" windowWidth="25425" windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -533,25 +532,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BC8A73-6D24-A84A-B2F2-583113E1776E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="17.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,7 +584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <f>ROW()-2</f>
         <v>1</v>
@@ -607,7 +608,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A50" si="0">ROW()-2</f>
         <v>2</v>
@@ -631,7 +632,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -655,7 +656,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -679,7 +680,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -703,7 +704,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -727,7 +728,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -751,7 +752,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -775,7 +776,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -799,7 +800,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -823,7 +824,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -847,7 +848,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -871,7 +872,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -895,7 +896,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -919,7 +920,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -943,7 +944,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -967,7 +968,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -991,7 +992,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1005,7 +1006,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1019,7 +1020,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1033,7 +1034,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1047,7 +1048,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1061,7 +1062,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1075,7 +1076,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1089,7 +1090,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1103,7 +1104,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1117,7 +1118,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1131,7 +1132,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1145,7 +1146,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1159,7 +1160,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1173,7 +1174,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1187,7 +1188,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1201,7 +1202,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1215,7 +1216,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1229,7 +1230,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1243,7 +1244,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1257,7 +1258,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1271,7 +1272,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1285,7 +1286,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1299,7 +1300,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1313,7 +1314,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1327,7 +1328,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1341,7 +1342,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1355,7 +1356,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1369,7 +1370,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1383,7 +1384,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1397,7 +1398,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1411,7 +1412,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>48</v>

--- a/Review/Review_FoodLab_Unit_Test.xlsx
+++ b/Review/Review_FoodLab_Unit_Test.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/foodlabTesting/Review/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\foodlabTesting\Review\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE438C4-5BBA-7A43-8EC9-DA520AC95BA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1340" windowWidth="25420" windowHeight="17340" xr2:uid="{8F8C2D6A-ABA6-C547-BCA7-FFC1F9D117E5}"/>
+    <workbookView xWindow="10320" yWindow="1344" windowWidth="25416" windowHeight="17340"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -131,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -156,7 +155,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,6 +171,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -203,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -220,6 +225,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,25 +539,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BC8A73-6D24-A84A-B2F2-583113E1776E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.296875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.1640625" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="6" width="17.19921875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.19921875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.19921875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -583,7 +591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="5">
         <f>ROW()-2</f>
         <v>1</v>
@@ -591,7 +599,7 @@
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="6">
@@ -607,7 +615,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A50" si="0">ROW()-2</f>
         <v>2</v>
@@ -615,7 +623,7 @@
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="6">
@@ -631,7 +639,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -639,7 +647,7 @@
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="6">
@@ -655,7 +663,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -663,7 +671,7 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="6">
@@ -679,7 +687,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -687,7 +695,7 @@
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="6">
@@ -703,7 +711,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -711,7 +719,7 @@
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="6">
@@ -727,7 +735,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -735,7 +743,7 @@
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="6">
@@ -751,7 +759,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -759,7 +767,7 @@
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="6">
@@ -775,7 +783,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -783,7 +791,7 @@
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="6">
@@ -799,7 +807,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -807,7 +815,7 @@
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="6">
@@ -823,7 +831,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -831,7 +839,7 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="8" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="6">
@@ -847,7 +855,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -855,7 +863,7 @@
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="6">
@@ -871,7 +879,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -879,7 +887,7 @@
       <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="6">
@@ -895,7 +903,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -903,7 +911,7 @@
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="6">
@@ -919,7 +927,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -927,7 +935,7 @@
       <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="6">
@@ -943,7 +951,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -951,7 +959,7 @@
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="6">
@@ -967,7 +975,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -975,7 +983,7 @@
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="6">
@@ -991,7 +999,7 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1005,7 +1013,7 @@
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1019,7 +1027,7 @@
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1033,7 +1041,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1047,7 +1055,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1061,7 +1069,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1075,7 +1083,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1089,7 +1097,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1103,7 +1111,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1117,7 +1125,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1131,7 +1139,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1145,7 +1153,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1159,7 +1167,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1173,7 +1181,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1187,7 +1195,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1201,7 +1209,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1215,7 +1223,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1229,7 +1237,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1243,7 +1251,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1257,7 +1265,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1271,7 +1279,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1285,7 +1293,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1299,7 +1307,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1313,7 +1321,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1327,7 +1335,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1341,7 +1349,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1355,7 +1363,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1369,7 +1377,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1383,7 +1391,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1397,7 +1405,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1411,7 +1419,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1427,5 +1435,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Review/Review_FoodLab_Unit_Test.xlsx
+++ b/Review/Review_FoodLab_Unit_Test.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\foodlabTesting\Review\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linnkoko/Desktop/Project/Food_Lab/Git/foodlabTesting/Review/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF471C7-C107-E94A-9A22-258C0D61DB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="1344" windowWidth="25416" windowHeight="17340"/>
+    <workbookView xWindow="820" yWindow="500" windowWidth="25420" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ALL" sheetId="1" r:id="rId1"/>
+    <sheet name="Home" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="58">
   <si>
     <t>No</t>
   </si>
@@ -125,12 +127,101 @@
   </si>
   <si>
     <t>Show All Text in default view State</t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Page Break is not Correct.</t>
+  </si>
+  <si>
+    <t>Text valign</t>
+  </si>
+  <si>
+    <t>MK</t>
+  </si>
+  <si>
+    <t>Header Color</t>
+  </si>
+  <si>
+    <t>Change Header Color</t>
+  </si>
+  <si>
+    <t>Change top for No,Function column text.</t>
+  </si>
+  <si>
+    <t>Add Maintanance function</t>
+  </si>
+  <si>
+    <t>Remove http://127.0.0.1:8000/ to 
+http://www.website.com/</t>
+  </si>
+  <si>
+    <t>Add About News Color function.which category will show what color.</t>
+  </si>
+  <si>
+    <t>Unit test flow must be 
+1.Initial Load
+2.Button Function
+3.Function
+4.Page Transfer</t>
+  </si>
+  <si>
+    <t>Unit test Flow is not correct.
+See All Review Sheet.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add manual data adding testing. </t>
+  </si>
+  <si>
+    <t>Add Login and no login Show State.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SHOP NOW button </t>
+  </si>
+  <si>
+    <t>not correct testing statement.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Add Welcome text function.</t>
+  </si>
+  <si>
+    <t>Add more detail for get contact function</t>
+  </si>
+  <si>
+    <t>Add Login and no login Show State for footer.</t>
+  </si>
+  <si>
+    <t>Add Recomented Function for Login State.</t>
+  </si>
+  <si>
+    <t>Add Mail Click function</t>
+  </si>
+  <si>
+    <t>Add Dropdown list for profile.</t>
+  </si>
+  <si>
+    <t>Add Slide Function for slider</t>
+  </si>
+  <si>
+    <t>Add more detail for best seller function.
+Example: product name will show what database column,etc.,,</t>
+  </si>
+  <si>
+    <t>Add more detail for recommand function.
+Example: product name will show what database column,etc.,,</t>
+  </si>
+  <si>
+    <t>Add Logo function.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -176,7 +267,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -208,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -225,7 +316,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,27 +640,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="17.19921875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.19921875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.69921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="25.19921875" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.796875" style="1"/>
+    <col min="5" max="6" width="17.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="25.95" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -591,7 +690,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <f>ROW()-2</f>
         <v>1</v>
@@ -599,7 +698,7 @@
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="5" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="6">
@@ -615,7 +714,7 @@
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <f t="shared" ref="A4:A50" si="0">ROW()-2</f>
         <v>2</v>
@@ -623,7 +722,7 @@
       <c r="B4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="6">
@@ -639,7 +738,7 @@
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -647,7 +746,7 @@
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D5" s="6">
@@ -663,7 +762,7 @@
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -671,7 +770,7 @@
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="6">
@@ -687,7 +786,7 @@
       <c r="H6" s="5"/>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -695,7 +794,7 @@
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="6">
@@ -711,7 +810,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -719,7 +818,7 @@
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="D8" s="6">
@@ -735,7 +834,7 @@
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -743,7 +842,7 @@
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="6">
@@ -759,7 +858,7 @@
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -767,7 +866,7 @@
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="6">
@@ -783,7 +882,7 @@
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -791,7 +890,7 @@
       <c r="B11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D11" s="6">
@@ -807,7 +906,7 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -815,7 +914,7 @@
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="6">
@@ -831,7 +930,7 @@
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -839,7 +938,7 @@
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="5" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="6">
@@ -855,7 +954,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -863,7 +962,7 @@
       <c r="B14" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="6">
@@ -879,7 +978,7 @@
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -887,7 +986,7 @@
       <c r="B15" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="5" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="6">
@@ -903,7 +1002,7 @@
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -911,7 +1010,7 @@
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D16" s="6">
@@ -927,7 +1026,7 @@
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -935,7 +1034,7 @@
       <c r="B17" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="5" t="s">
         <v>26</v>
       </c>
       <c r="D17" s="6">
@@ -951,7 +1050,7 @@
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -959,7 +1058,7 @@
       <c r="B18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D18" s="6">
@@ -975,7 +1074,7 @@
       <c r="H18" s="5"/>
       <c r="I18" s="5"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -983,7 +1082,7 @@
       <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="5" t="s">
         <v>29</v>
       </c>
       <c r="D19" s="6">
@@ -999,35 +1098,55 @@
       <c r="H19" s="5"/>
       <c r="I19" s="5"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="5">
+    <row r="20" spans="1:9" ht="44" x14ac:dyDescent="0.25">
+      <c r="A20" s="9">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="B20" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="11">
+        <v>44633</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="5">
+    <row r="21" spans="1:9" ht="110" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
+      <c r="B21" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D21" s="11">
+        <v>44633</v>
+      </c>
+      <c r="E21" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>12</v>
+      </c>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="I21" s="5"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -1041,7 +1160,7 @@
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -1055,7 +1174,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="5"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1069,7 +1188,7 @@
       <c r="H24" s="5"/>
       <c r="I24" s="5"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1083,7 +1202,7 @@
       <c r="H25" s="5"/>
       <c r="I25" s="5"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1097,7 +1216,7 @@
       <c r="H26" s="5"/>
       <c r="I26" s="5"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1111,7 +1230,7 @@
       <c r="H27" s="5"/>
       <c r="I27" s="5"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1125,7 +1244,7 @@
       <c r="H28" s="5"/>
       <c r="I28" s="5"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1139,7 +1258,7 @@
       <c r="H29" s="5"/>
       <c r="I29" s="5"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1153,7 +1272,7 @@
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1167,7 +1286,7 @@
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -1181,7 +1300,7 @@
       <c r="H32" s="5"/>
       <c r="I32" s="5"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1195,7 +1314,7 @@
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1209,7 +1328,7 @@
       <c r="H34" s="5"/>
       <c r="I34" s="5"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1223,7 +1342,7 @@
       <c r="H35" s="5"/>
       <c r="I35" s="5"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1237,7 +1356,7 @@
       <c r="H36" s="5"/>
       <c r="I36" s="5"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1251,7 +1370,7 @@
       <c r="H37" s="5"/>
       <c r="I37" s="5"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1265,7 +1384,7 @@
       <c r="H38" s="5"/>
       <c r="I38" s="5"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1279,7 +1398,7 @@
       <c r="H39" s="5"/>
       <c r="I39" s="5"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -1293,7 +1412,7 @@
       <c r="H40" s="5"/>
       <c r="I40" s="5"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -1307,7 +1426,7 @@
       <c r="H41" s="5"/>
       <c r="I41" s="5"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="5">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -1321,7 +1440,7 @@
       <c r="H42" s="5"/>
       <c r="I42" s="5"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1335,7 +1454,7 @@
       <c r="H43" s="5"/>
       <c r="I43" s="5"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="5">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -1349,7 +1468,7 @@
       <c r="H44" s="5"/>
       <c r="I44" s="5"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -1363,7 +1482,7 @@
       <c r="H45" s="5"/>
       <c r="I45" s="5"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="5">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -1377,7 +1496,7 @@
       <c r="H46" s="5"/>
       <c r="I46" s="5"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -1391,7 +1510,7 @@
       <c r="H47" s="5"/>
       <c r="I47" s="5"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="5">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -1405,7 +1524,7 @@
       <c r="H48" s="5"/>
       <c r="I48" s="5"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -1419,7 +1538,7 @@
       <c r="H49" s="5"/>
       <c r="I49" s="5"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="5">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -1435,6 +1554,948 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:J53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="55.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="25.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="26" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <f>ROW()-2</f>
+        <v>1</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A53" si="0">ROW()-2</f>
+        <v>2</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" ht="44" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="22" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="6"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="9" spans="1:10" ht="44" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+    </row>
+    <row r="14" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D14" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+    </row>
+    <row r="15" spans="1:10" ht="66" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" s="6">
+        <v>44633</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>